--- a/biology/Zoologie/Brève_de_Steere/Brève_de_Steere.xlsx
+++ b/biology/Zoologie/Brève_de_Steere/Brève_de_Steere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_de_Steere</t>
+          <t>Brève_de_Steere</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pitta steerii
 La Brève de Steere (Pitta steerii) est une espèce de passereaux appartenant à la famille des Pittidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_de_Steere</t>
+          <t>Brève_de_Steere</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oiseau est caractérisée par gorge blanche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oiseau est caractérisée par gorge blanche.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_de_Steere</t>
+          <t>Brève_de_Steere</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est endémique des Philippines. Elle vit dans les forêts calcaires jusqu'à 750 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est endémique des Philippines. Elle vit dans les forêts calcaires jusqu'à 750 m d'altitude.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_de_Steere</t>
+          <t>Brève_de_Steere</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe deux sous-espèces :
 Pitta steerii coelestis Parkes, 1971 ;
